--- a/Unity/Assets/Config/Excel/StartConfig/RouterTest/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/RouterTest/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/Excel/Datas/StartConfig/RouterTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\RouterTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACE9080-8398-6448-94B1-BEC7B508D492}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B94E81-4239-40D8-BEE9-6C5D50AA8ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="10800" windowWidth="22940" windowHeight="14120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>所属进程</t>
   </si>
@@ -136,13 +136,40 @@
   <si>
     <t>Router04</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map3</t>
+  </si>
+  <si>
+    <t>zpbTest</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>PlayerCache</t>
+  </si>
+  <si>
+    <t>Mail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -559,23 +586,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1640625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -599,7 +626,7 @@
       </c>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:8" s="7" customFormat="1">
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -623,7 +650,7 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" s="5" customFormat="1">
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -647,7 +674,7 @@
       </c>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -667,7 +694,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -687,7 +714,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -707,7 +734,7 @@
         <v>30003</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -725,7 +752,7 @@
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -743,7 +770,7 @@
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -760,6 +787,159 @@
         <v>13</v>
       </c>
       <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="3">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="3">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="3">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>15</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -776,17 +956,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="2" customWidth="1"/>
     <col min="3" max="5" width="12.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.33203125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.1640625" style="3" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -809,7 +989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -837,7 +1017,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" ht="15">
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -865,7 +1045,7 @@
       <c r="K3"/>
       <c r="L3"/>
     </row>
-    <row r="4" spans="1:12" ht="15">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="9">
         <v>200</v>
@@ -889,7 +1069,7 @@
       <c r="K4"/>
       <c r="L4"/>
     </row>
-    <row r="5" spans="1:12" ht="15">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -903,7 +1083,7 @@
       <c r="K5"/>
       <c r="L5"/>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -917,7 +1097,7 @@
       <c r="K6"/>
       <c r="L6"/>
     </row>
-    <row r="7" spans="1:12" ht="15">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -931,7 +1111,7 @@
       <c r="K7"/>
       <c r="L7"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -945,7 +1125,7 @@
       <c r="K8"/>
       <c r="L8"/>
     </row>
-    <row r="9" spans="1:12" ht="15">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -959,35 +1139,35 @@
       <c r="K9"/>
       <c r="L9"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
@@ -1006,9 +1186,9 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -1054,7 +1234,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -1077,7 +1257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="4">
         <v>400</v>
       </c>
@@ -1097,7 +1277,7 @@
         <v>30300</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>401</v>
       </c>
@@ -1117,7 +1297,7 @@
         <v>30301</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>402</v>
       </c>
@@ -1137,7 +1317,7 @@
         <v>30302</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>403</v>
       </c>
@@ -1157,7 +1337,7 @@
         <v>30303</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>404</v>
       </c>

--- a/Unity/Assets/Config/Excel/StartConfig/RouterTest/StartSceneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/RouterTest/StartSceneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\RouterTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B94E81-4239-40D8-BEE9-6C5D50AA8ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AD4D5E-E740-4658-9E0C-C8F9B679CAA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="2352" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="42">
   <si>
     <t>所属进程</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Mail</t>
+  </si>
+  <si>
+    <t>Season</t>
   </si>
 </sst>
 </file>
@@ -586,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="145" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -939,6 +942,23 @@
       </c>
       <c r="F18" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="3">
+        <v>16</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
